--- a/test_modified.xlsx
+++ b/test_modified.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:\Users\Ismail\Desktop\Automation\QR Code Images\1.png</t>
+          <t>E:\Event-Etrance-QR-Code\QR Code Images\1.png</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:\Users\Ismail\Desktop\Automation\QR Code Images\2.png</t>
+          <t>E:\Event-Etrance-QR-Code\QR Code Images\2.png</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:\Users\Ismail\Desktop\Automation\QR Code Images\3.png</t>
+          <t>E:\Event-Etrance-QR-Code\QR Code Images\3.png</t>
         </is>
       </c>
     </row>

--- a/test_modified.xlsx
+++ b/test_modified.xlsx
@@ -436,83 +436,80 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>QRCode</t>
+          <t>QR_Link</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Alaa</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>alaaismail286@gmail.com</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>E:\Event-Etrance-QR-Code\QR Code Images\1.png</t>
-        </is>
+      <c r="D2">
+        <f>HYPERLINK("E:\Event-Etrance-QR-Code\QR Code Images\1.png", "1_QR_Link")</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>omar@example.com</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>E:\Event-Etrance-QR-Code\QR Code Images\2.png</t>
-        </is>
+      <c r="D3">
+        <f>HYPERLINK("E:\Event-Etrance-QR-Code\QR Code Images\2.png", "2_QR_Link")</f>
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mostafa</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>mostafa@example.com</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E:\Event-Etrance-QR-Code\QR Code Images\3.png</t>
-        </is>
+      <c r="D4">
+        <f>HYPERLINK("E:\Event-Etrance-QR-Code\QR Code Images\3.png", "3_QR_Link")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
